--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43680,6 +43680,41 @@
         <v>45000</v>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>27000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43715,6 +43715,43 @@
         <v>27000</v>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43752,6 +43752,41 @@
         </is>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>3200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43787,6 +43787,43 @@
         <v>3200</v>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43824,6 +43824,41 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>3200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43859,6 +43859,41 @@
         <v>3200</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>20200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43894,6 +43894,41 @@
         <v>20200</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>5800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43929,6 +43929,41 @@
         <v>5800</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43964,6 +43964,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43999,6 +43999,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>35800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44034,6 +44034,43 @@
         <v>35800</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44071,6 +44071,78 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44143,6 +44143,76 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44213,6 +44213,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44248,6 +44248,41 @@
         <v>40000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44283,6 +44283,43 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44320,6 +44320,43 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44357,6 +44357,76 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44427,6 +44427,43 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44464,6 +44464,43 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2340"/>
+  <dimension ref="A1:I2341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83386,6 +83386,41 @@
         </is>
       </c>
     </row>
+    <row r="2341">
+      <c r="A2341" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2341" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2341" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D2341" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E2341" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2341" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2341" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2341" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2341" t="n">
+        <v>24000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2341"/>
+  <dimension ref="A1:I2342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83421,6 +83421,43 @@
         <v>24000</v>
       </c>
     </row>
+    <row r="2342">
+      <c r="A2342" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2342" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2342" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D2342" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E2342" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2342" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2342" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2342" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2342" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2342"/>
+  <dimension ref="A1:I2343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83458,6 +83458,41 @@
         </is>
       </c>
     </row>
+    <row r="2343">
+      <c r="A2343" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2343" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2343" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D2343" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E2343" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2343" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2343" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2343" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2343" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2343"/>
+  <dimension ref="A1:I2344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83493,6 +83493,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2344">
+      <c r="A2344" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2344" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2344" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D2344" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E2344" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F2344" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2344" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H2344" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2344" t="n">
+        <v>68100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2344"/>
+  <dimension ref="A1:I2345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83528,6 +83528,41 @@
         <v>68100</v>
       </c>
     </row>
+    <row r="2345">
+      <c r="A2345" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2345" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2345" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D2345" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E2345" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2345" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2345" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2345" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2345" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2345"/>
+  <dimension ref="A1:I2346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83563,6 +83563,43 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2346">
+      <c r="A2346" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2346" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2346" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D2346" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E2346" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2346" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2346" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2346" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2346" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2346"/>
+  <dimension ref="A1:I2347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83600,6 +83600,43 @@
         </is>
       </c>
     </row>
+    <row r="2347">
+      <c r="A2347" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2347" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2347" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D2347" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E2347" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2347" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2347" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2347" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2347" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2347"/>
+  <dimension ref="A1:I2348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83637,6 +83637,43 @@
         </is>
       </c>
     </row>
+    <row r="2348">
+      <c r="A2348" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2348" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2348" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D2348" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E2348" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2348" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2348" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2348" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2348" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2348"/>
+  <dimension ref="A1:I2349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83674,6 +83674,43 @@
         </is>
       </c>
     </row>
+    <row r="2349">
+      <c r="A2349" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2349" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2349" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D2349" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E2349" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2349" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2349" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2349" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2349" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2349"/>
+  <dimension ref="A1:I2350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83711,6 +83711,43 @@
         </is>
       </c>
     </row>
+    <row r="2350">
+      <c r="A2350" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2350" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2350" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D2350" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E2350" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2350" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2350" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2350" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2350" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2350"/>
+  <dimension ref="A1:I2351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83748,6 +83748,41 @@
         </is>
       </c>
     </row>
+    <row r="2351">
+      <c r="A2351" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2351" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2351" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D2351" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E2351" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2351" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G2351" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2351" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I2351" t="n">
+        <v>43000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2351"/>
+  <dimension ref="A1:I2352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83783,6 +83783,41 @@
         <v>43000</v>
       </c>
     </row>
+    <row r="2352">
+      <c r="A2352" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2352" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2352" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D2352" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E2352" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2352" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2352" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2352" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2352" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2352"/>
+  <dimension ref="A1:I2353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83818,6 +83818,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2353">
+      <c r="A2353" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2353" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2353" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D2353" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E2353" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2353" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2353" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2353" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2353" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2353"/>
+  <dimension ref="A1:I2354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83855,6 +83855,41 @@
         </is>
       </c>
     </row>
+    <row r="2354">
+      <c r="A2354" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2354" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2354" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D2354" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E2354" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F2354" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G2354" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H2354" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I2354" t="n">
+        <v>8800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7323.xlsx
+++ b/data/7323.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2354"/>
+  <dimension ref="A1:I2355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83890,6 +83890,41 @@
         <v>8800</v>
       </c>
     </row>
+    <row r="2355">
+      <c r="A2355" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2355" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2355" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="D2355" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E2355" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2355" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2355" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H2355" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I2355" t="n">
+        <v>3600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
